--- a/database/raw_data/realtion_db/좋은제약_실적자료_조하은_2.xlsx
+++ b/database/raw_data/realtion_db/좋은제약_실적자료_조하은_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kdy\Projects\Project_SK_5\Storage_docs\raw_data_enhanced\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kdy\Projects\Narutalk_V003\beta_v0031\database\raw_data\realtion_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACD210E-6874-42DA-A3BF-A7892DF68132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6016501-ADE1-4C82-A08A-6559D7739AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{7682EFFD-E18A-4BB7-B49F-009B663140DF}"/>
+    <workbookView xWindow="2580" yWindow="10290" windowWidth="21600" windowHeight="12670" xr2:uid="{7682EFFD-E18A-4BB7-B49F-009B663140DF}"/>
   </bookViews>
   <sheets>
     <sheet name="좋은제약_실적자료_조하은_결측치_수정본" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="122">
   <si>
     <t>담당자</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>품목</t>
@@ -387,6 +384,9 @@
   </si>
   <si>
     <t>남서울내과의원</t>
+  </si>
+  <si>
+    <t>거래처ID</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:AB265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1372,16 +1372,16 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1">
         <v>202212</v>
@@ -1458,16 +1458,16 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
       <c r="E2">
         <v>233449</v>
@@ -1544,16 +1544,16 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1630,16 +1630,16 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1716,16 +1716,16 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1802,16 +1802,16 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
       </c>
       <c r="E6">
         <v>81280</v>
@@ -1888,16 +1888,16 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>70175</v>
@@ -1974,16 +1974,16 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>7972</v>
@@ -2060,16 +2060,16 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
         <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
       </c>
       <c r="E9">
         <v>26661</v>
@@ -2146,16 +2146,16 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>148349</v>
@@ -2232,16 +2232,16 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>87692</v>
@@ -2318,16 +2318,16 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>30279</v>
@@ -2404,16 +2404,16 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>22150</v>
@@ -2490,16 +2490,16 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>39432</v>
@@ -2576,16 +2576,16 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>661099</v>
@@ -2662,16 +2662,16 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2748,16 +2748,16 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>43328</v>
@@ -2834,16 +2834,16 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2920,16 +2920,16 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>40971</v>
@@ -3006,16 +3006,16 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>339257</v>
@@ -3092,16 +3092,16 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>1455880</v>
@@ -3178,16 +3178,16 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>48204</v>
@@ -3264,16 +3264,16 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3350,16 +3350,16 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3436,16 +3436,16 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
         <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
       </c>
       <c r="E25">
         <v>1818095</v>
@@ -3522,16 +3522,16 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>422454</v>
@@ -3608,16 +3608,16 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>8562</v>
@@ -3694,16 +3694,16 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <v>290756</v>
@@ -3780,16 +3780,16 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3866,16 +3866,16 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30">
         <v>596</v>
@@ -3952,16 +3952,16 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <v>50756</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <v>105288</v>
@@ -4124,16 +4124,16 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33">
         <v>238783</v>
@@ -4210,16 +4210,16 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
         <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4296,16 +4296,16 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35">
         <v>9499</v>
@@ -4382,16 +4382,16 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>10930</v>
@@ -4468,16 +4468,16 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
         <v>36</v>
-      </c>
-      <c r="D37" t="s">
-        <v>37</v>
       </c>
       <c r="E37">
         <v>44212</v>
@@ -4554,16 +4554,16 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -4640,16 +4640,16 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -4726,16 +4726,16 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <v>378387</v>
@@ -4812,16 +4812,16 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E41">
         <v>16191</v>
@@ -4898,16 +4898,16 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42">
         <v>2044</v>
@@ -4984,16 +4984,16 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>25653</v>
@@ -5070,16 +5070,16 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>47537</v>
@@ -5156,16 +5156,16 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5242,16 +5242,16 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E46">
         <v>18413</v>
@@ -5328,16 +5328,16 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5414,16 +5414,16 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -5500,16 +5500,16 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s">
         <v>39</v>
-      </c>
-      <c r="D49" t="s">
-        <v>40</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -5586,16 +5586,16 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -5672,16 +5672,16 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -5758,16 +5758,16 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -5844,16 +5844,16 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" t="s">
         <v>42</v>
-      </c>
-      <c r="D53" t="s">
-        <v>43</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -5930,16 +5930,16 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -6016,16 +6016,16 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -6102,16 +6102,16 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -6188,16 +6188,16 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -6274,16 +6274,16 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -6360,16 +6360,16 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -6446,16 +6446,16 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -6532,16 +6532,16 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" t="s">
         <v>47</v>
-      </c>
-      <c r="D61" t="s">
-        <v>48</v>
       </c>
       <c r="E61">
         <v>59469</v>
@@ -6618,16 +6618,16 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62">
         <v>429276</v>
@@ -6704,16 +6704,16 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E63">
         <v>134462</v>
@@ -6790,16 +6790,16 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E64">
         <v>96969</v>
@@ -6876,16 +6876,16 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -6962,16 +6962,16 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66">
         <v>13306</v>
@@ -7048,16 +7048,16 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -7134,16 +7134,16 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E68">
         <v>87706</v>
@@ -7220,16 +7220,16 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E69">
         <v>61425</v>
@@ -7306,16 +7306,16 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E70">
         <v>112840</v>
@@ -7392,16 +7392,16 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <v>27815</v>
@@ -7478,16 +7478,16 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E72">
         <v>12612</v>
@@ -7564,16 +7564,16 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E73">
         <v>1019</v>
@@ -7650,16 +7650,16 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74">
         <v>23779</v>
@@ -7736,16 +7736,16 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" t="s">
         <v>51</v>
-      </c>
-      <c r="D75" t="s">
-        <v>52</v>
       </c>
       <c r="E75">
         <v>2741</v>
@@ -7822,16 +7822,16 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -7908,16 +7908,16 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -7994,16 +7994,16 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -8080,16 +8080,16 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E79">
         <v>46707</v>
@@ -8166,16 +8166,16 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" t="s">
         <v>55</v>
-      </c>
-      <c r="D80" t="s">
-        <v>56</v>
       </c>
       <c r="E80">
         <v>266653</v>
@@ -8252,16 +8252,16 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E81">
         <v>502846</v>
@@ -8338,16 +8338,16 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -8424,16 +8424,16 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E83">
         <v>42202</v>
@@ -8510,16 +8510,16 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E84">
         <v>668</v>
@@ -8596,16 +8596,16 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -8682,16 +8682,16 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" t="s">
         <v>59</v>
-      </c>
-      <c r="D86" t="s">
-        <v>60</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -8768,16 +8768,16 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E87">
         <v>158198</v>
@@ -8854,16 +8854,16 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -8940,16 +8940,16 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E89">
         <v>9218</v>
@@ -9026,16 +9026,16 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E90">
         <v>27999</v>
@@ -9112,16 +9112,16 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E91">
         <v>127755</v>
@@ -9198,16 +9198,16 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -9284,16 +9284,16 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E93">
         <v>5737</v>
@@ -9370,16 +9370,16 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E94">
         <v>8526</v>
@@ -9456,16 +9456,16 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E95">
         <v>4730</v>
@@ -9542,16 +9542,16 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E96">
         <v>1366</v>
@@ -9628,16 +9628,16 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E97">
         <v>59238</v>
@@ -9714,16 +9714,16 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -9800,16 +9800,16 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99" t="s">
         <v>63</v>
-      </c>
-      <c r="D99" t="s">
-        <v>64</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -9886,16 +9886,16 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -9972,16 +9972,16 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -10058,16 +10058,16 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -10144,16 +10144,16 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E103">
         <v>31675</v>
@@ -10230,16 +10230,16 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" t="s">
         <v>65</v>
-      </c>
-      <c r="D104" t="s">
-        <v>66</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -10316,16 +10316,16 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E105">
         <v>59727</v>
@@ -10402,16 +10402,16 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <v>1557</v>
@@ -10488,16 +10488,16 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -10574,16 +10574,16 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D108" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -10660,16 +10660,16 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E109">
         <v>190987</v>
@@ -10746,16 +10746,16 @@
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D110" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E110">
         <v>78069</v>
@@ -10832,16 +10832,16 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E111">
         <v>55457</v>
@@ -10918,16 +10918,16 @@
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
         <v>69</v>
-      </c>
-      <c r="D112" t="s">
-        <v>70</v>
       </c>
       <c r="E112">
         <v>8872</v>
@@ -11004,16 +11004,16 @@
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -11090,16 +11090,16 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E114">
         <v>608549</v>
@@ -11176,16 +11176,16 @@
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E115">
         <v>424886</v>
@@ -11262,16 +11262,16 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E116">
         <v>363862</v>
@@ -11348,16 +11348,16 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E117">
         <v>387794</v>
@@ -11434,16 +11434,16 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E118">
         <v>574135</v>
@@ -11520,16 +11520,16 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" t="s">
+        <v>70</v>
+      </c>
+      <c r="D119" t="s">
         <v>71</v>
-      </c>
-      <c r="D119" t="s">
-        <v>72</v>
       </c>
       <c r="E119">
         <v>5187</v>
@@ -11606,16 +11606,16 @@
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E120">
         <v>26814</v>
@@ -11692,16 +11692,16 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
+        <v>72</v>
+      </c>
+      <c r="D121" t="s">
         <v>73</v>
-      </c>
-      <c r="D121" t="s">
-        <v>74</v>
       </c>
       <c r="E121">
         <v>4428</v>
@@ -11778,16 +11778,16 @@
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D122" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -11864,16 +11864,16 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E123">
         <v>100418</v>
@@ -11950,16 +11950,16 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -12036,16 +12036,16 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E125">
         <v>459</v>
@@ -12122,16 +12122,16 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E126">
         <v>2354</v>
@@ -12208,16 +12208,16 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E127">
         <v>4842</v>
@@ -12294,16 +12294,16 @@
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
+        <v>74</v>
+      </c>
+      <c r="D128" t="s">
         <v>75</v>
-      </c>
-      <c r="D128" t="s">
-        <v>76</v>
       </c>
       <c r="E128">
         <v>2297</v>
@@ -12380,16 +12380,16 @@
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -12466,16 +12466,16 @@
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E130">
         <v>2034</v>
@@ -12552,16 +12552,16 @@
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -12638,16 +12638,16 @@
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E132">
         <v>5701</v>
@@ -12724,16 +12724,16 @@
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B133" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133" t="s">
+        <v>76</v>
+      </c>
+      <c r="D133" t="s">
         <v>77</v>
-      </c>
-      <c r="D133" t="s">
-        <v>78</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -12810,16 +12810,16 @@
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -12896,16 +12896,16 @@
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E135">
         <v>1270</v>
@@ -12982,16 +12982,16 @@
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B136" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E136">
         <v>134434</v>
@@ -13068,16 +13068,16 @@
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
+        <v>78</v>
+      </c>
+      <c r="D137" t="s">
         <v>79</v>
-      </c>
-      <c r="D137" t="s">
-        <v>80</v>
       </c>
       <c r="E137">
         <v>22174</v>
@@ -13154,16 +13154,16 @@
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D138" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E138">
         <v>78396</v>
@@ -13240,16 +13240,16 @@
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B139" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D139" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E139">
         <v>383320</v>
@@ -13326,16 +13326,16 @@
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E140">
         <v>429195</v>
@@ -13412,16 +13412,16 @@
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E141">
         <v>221394</v>
@@ -13498,16 +13498,16 @@
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
+        <v>81</v>
+      </c>
+      <c r="D142" t="s">
         <v>82</v>
-      </c>
-      <c r="D142" t="s">
-        <v>83</v>
       </c>
       <c r="E142">
         <v>638379</v>
@@ -13584,16 +13584,16 @@
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E143">
         <v>50530</v>
@@ -13670,16 +13670,16 @@
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D144" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E144">
         <v>215572</v>
@@ -13756,16 +13756,16 @@
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E145">
         <v>47899</v>
@@ -13842,16 +13842,16 @@
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E146">
         <v>534306</v>
@@ -13928,16 +13928,16 @@
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B147" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E147">
         <v>713749</v>
@@ -14014,16 +14014,16 @@
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D148" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E148">
         <v>144970</v>
@@ -14100,16 +14100,16 @@
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -14186,16 +14186,16 @@
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B150" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -14272,16 +14272,16 @@
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D151" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -14358,16 +14358,16 @@
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C152" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D152" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E152">
         <v>54934</v>
@@ -14444,16 +14444,16 @@
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B153" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -14530,16 +14530,16 @@
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B154" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D154" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -14616,16 +14616,16 @@
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B155" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D155" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E155">
         <v>139490</v>
@@ -14702,16 +14702,16 @@
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B156" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -14788,16 +14788,16 @@
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D157" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E157">
         <v>66927</v>
@@ -14874,16 +14874,16 @@
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D158" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E158">
         <v>7967</v>
@@ -14960,16 +14960,16 @@
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B159" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D159" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E159">
         <v>34586</v>
@@ -15046,16 +15046,16 @@
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B160" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E160">
         <v>1136119</v>
@@ -15132,16 +15132,16 @@
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E161">
         <v>1069458</v>
@@ -15218,16 +15218,16 @@
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B162" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D162" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E162">
         <v>163127</v>
@@ -15304,16 +15304,16 @@
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B163" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -15390,16 +15390,16 @@
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B164" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D164" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E164">
         <v>425294</v>
@@ -15476,16 +15476,16 @@
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
+        <v>117</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" t="s">
         <v>118</v>
       </c>
-      <c r="B165" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" t="s">
-        <v>119</v>
-      </c>
       <c r="D165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -15562,16 +15562,16 @@
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B166" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -15648,16 +15648,16 @@
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B167" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C167" t="s">
+        <v>90</v>
+      </c>
+      <c r="D167" t="s">
         <v>91</v>
-      </c>
-      <c r="D167" t="s">
-        <v>92</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -15734,16 +15734,16 @@
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B168" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D168" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -15820,16 +15820,16 @@
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B169" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" t="s">
+        <v>90</v>
+      </c>
+      <c r="D169" t="s">
         <v>3</v>
-      </c>
-      <c r="C169" t="s">
-        <v>91</v>
-      </c>
-      <c r="D169" t="s">
-        <v>4</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -15906,16 +15906,16 @@
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B170" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D170" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -15992,16 +15992,16 @@
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B171" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C171" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -16078,16 +16078,16 @@
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B172" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -16164,16 +16164,16 @@
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B173" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -16250,16 +16250,16 @@
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B174" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D174" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -16336,16 +16336,16 @@
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B175" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -16422,16 +16422,16 @@
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B176" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C176" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D176" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -16508,16 +16508,16 @@
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B177" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D177" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -16594,16 +16594,16 @@
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B178" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D178" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -16680,16 +16680,16 @@
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B179" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D179" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -16766,16 +16766,16 @@
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B180" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D180" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -16852,16 +16852,16 @@
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B181" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -16938,16 +16938,16 @@
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B182" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E182">
         <v>1020694</v>
@@ -17024,16 +17024,16 @@
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B183" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D183" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E183">
         <v>250958</v>
@@ -17110,16 +17110,16 @@
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B184" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D184" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E184">
         <v>94222</v>
@@ -17196,16 +17196,16 @@
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B185" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D185" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E185">
         <v>1158199</v>
@@ -17282,16 +17282,16 @@
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B186" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E186">
         <v>52509</v>
@@ -17368,16 +17368,16 @@
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D187" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E187">
         <v>62419</v>
@@ -17454,16 +17454,16 @@
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B188" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D188" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E188">
         <v>33273</v>
@@ -17540,16 +17540,16 @@
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B189" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E189">
         <v>428353</v>
@@ -17626,16 +17626,16 @@
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B190" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D190" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -17712,16 +17712,16 @@
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B191" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E191">
         <v>7186</v>
@@ -17798,16 +17798,16 @@
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B192" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E192">
         <v>573</v>
@@ -17884,16 +17884,16 @@
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B193" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E193">
         <v>24336</v>
@@ -17970,16 +17970,16 @@
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B194" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D194" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -18056,16 +18056,16 @@
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B195" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D195" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -18142,16 +18142,16 @@
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B196" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196" t="s">
+        <v>99</v>
+      </c>
+      <c r="D196" t="s">
         <v>100</v>
-      </c>
-      <c r="D196" t="s">
-        <v>101</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -18228,16 +18228,16 @@
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B197" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D197" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -18314,16 +18314,16 @@
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B198" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -18400,16 +18400,16 @@
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B199" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>99</v>
+      </c>
+      <c r="D199" t="s">
         <v>3</v>
-      </c>
-      <c r="C199" t="s">
-        <v>100</v>
-      </c>
-      <c r="D199" t="s">
-        <v>4</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -18486,16 +18486,16 @@
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B200" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D200" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -18572,16 +18572,16 @@
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B201" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D201" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -18658,16 +18658,16 @@
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B202" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D202" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -18744,16 +18744,16 @@
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B203" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -18830,16 +18830,16 @@
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B204" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D204" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -18916,16 +18916,16 @@
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B205" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C205" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D205" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -19002,16 +19002,16 @@
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B206" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D206" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -19088,16 +19088,16 @@
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B207" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -19174,16 +19174,16 @@
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B208" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -19260,16 +19260,16 @@
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B209" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D209" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -19346,16 +19346,16 @@
     </row>
     <row r="210" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B210" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C210" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D210" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -19432,16 +19432,16 @@
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B211" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C211" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D211" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -19518,16 +19518,16 @@
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B212" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C212" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D212" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -19604,16 +19604,16 @@
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B213" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C213" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D213" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -19690,16 +19690,16 @@
     </row>
     <row r="214" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B214" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C214" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D214" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -19776,16 +19776,16 @@
     </row>
     <row r="215" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B215" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C215" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D215" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -19862,16 +19862,16 @@
     </row>
     <row r="216" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B216" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C216" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D216" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -19948,16 +19948,16 @@
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B217" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C217" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D217" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -20034,16 +20034,16 @@
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B218" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C218" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D218" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -20120,16 +20120,16 @@
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B219" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C219" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D219" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -20206,16 +20206,16 @@
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B220" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C220" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D220" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -20292,16 +20292,16 @@
     </row>
     <row r="221" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B221" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D221" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -20378,16 +20378,16 @@
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B222" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C222" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D222" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -20464,16 +20464,16 @@
     </row>
     <row r="223" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B223" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C223" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D223" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -20550,16 +20550,16 @@
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B224" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C224" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D224" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -20636,16 +20636,16 @@
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B225" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C225" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D225" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E225">
         <v>86244</v>
@@ -20722,16 +20722,16 @@
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B226" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C226" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D226" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E226">
         <v>308641</v>
@@ -20808,16 +20808,16 @@
     </row>
     <row r="227" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B227" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C227" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D227" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E227">
         <v>119834</v>
@@ -20894,16 +20894,16 @@
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B228" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C228" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D228" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E228">
         <v>4894</v>
@@ -20980,16 +20980,16 @@
     </row>
     <row r="229" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B229" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C229" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D229" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E229">
         <v>69545</v>
@@ -21066,16 +21066,16 @@
     </row>
     <row r="230" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B230" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E230">
         <v>8154</v>
@@ -21152,16 +21152,16 @@
     </row>
     <row r="231" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B231" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C231" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D231" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E231">
         <v>19111</v>
@@ -21238,16 +21238,16 @@
     </row>
     <row r="232" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B232" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C232" t="s">
+        <v>104</v>
+      </c>
+      <c r="D232" t="s">
         <v>105</v>
-      </c>
-      <c r="D232" t="s">
-        <v>106</v>
       </c>
       <c r="E232">
         <v>40470</v>
@@ -21324,16 +21324,16 @@
     </row>
     <row r="233" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B233" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D233" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E233">
         <v>8350</v>
@@ -21410,16 +21410,16 @@
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B234" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C234" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D234" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E234">
         <v>132029</v>
@@ -21496,16 +21496,16 @@
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B235" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C235" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E235">
         <v>153287</v>
@@ -21582,16 +21582,16 @@
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B236" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C236" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D236" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E236">
         <v>172507</v>
@@ -21668,16 +21668,16 @@
     </row>
     <row r="237" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B237" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D237" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E237">
         <v>19333</v>
@@ -21754,16 +21754,16 @@
     </row>
     <row r="238" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B238" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C238" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D238" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E238">
         <v>217052</v>
@@ -21840,16 +21840,16 @@
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B239" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C239" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D239" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E239">
         <v>58605</v>
@@ -21926,16 +21926,16 @@
     </row>
     <row r="240" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B240" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D240" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E240">
         <v>2178</v>
@@ -22012,16 +22012,16 @@
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B241" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D241" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -22098,16 +22098,16 @@
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B242" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C242" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D242" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -22184,16 +22184,16 @@
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B243" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D243" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -22270,16 +22270,16 @@
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B244" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C244" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D244" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E244">
         <v>37824</v>
@@ -22356,16 +22356,16 @@
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B245" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C245" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D245" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E245">
         <v>113509</v>
@@ -22442,16 +22442,16 @@
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B246" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C246" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D246" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E246">
         <v>357520</v>
@@ -22528,16 +22528,16 @@
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B247" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C247" t="s">
+        <v>109</v>
+      </c>
+      <c r="D247" t="s">
         <v>110</v>
-      </c>
-      <c r="D247" t="s">
-        <v>111</v>
       </c>
       <c r="E247">
         <v>68092</v>
@@ -22614,16 +22614,16 @@
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B248" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C248" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D248" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E248">
         <v>1153</v>
@@ -22700,16 +22700,16 @@
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B249" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C249" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D249" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E249">
         <v>6870</v>
@@ -22786,16 +22786,16 @@
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B250" t="s">
+        <v>2</v>
+      </c>
+      <c r="C250" t="s">
+        <v>112</v>
+      </c>
+      <c r="D250" t="s">
         <v>3</v>
-      </c>
-      <c r="C250" t="s">
-        <v>113</v>
-      </c>
-      <c r="D250" t="s">
-        <v>4</v>
       </c>
       <c r="E250">
         <v>175011</v>
@@ -22872,16 +22872,16 @@
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B251" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C251" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D251" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E251">
         <v>2234</v>
@@ -22958,16 +22958,16 @@
     </row>
     <row r="252" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B252" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C252" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E252">
         <v>230</v>
@@ -23044,16 +23044,16 @@
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B253" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C253" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D253" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E253">
         <v>1856</v>
@@ -23130,16 +23130,16 @@
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B254" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C254" t="s">
+        <v>112</v>
+      </c>
+      <c r="D254" t="s">
         <v>113</v>
-      </c>
-      <c r="D254" t="s">
-        <v>114</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -23216,16 +23216,16 @@
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B255" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C255" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D255" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E255">
         <v>303</v>
@@ -23302,16 +23302,16 @@
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B256" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C256" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D256" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E256">
         <v>133951</v>
@@ -23388,16 +23388,16 @@
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B257" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C257" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D257" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E257">
         <v>9231</v>
@@ -23474,16 +23474,16 @@
     </row>
     <row r="258" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B258" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C258" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D258" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -23560,16 +23560,16 @@
     </row>
     <row r="259" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B259" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C259" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D259" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -23646,16 +23646,16 @@
     </row>
     <row r="260" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B260" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C260" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D260" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E260">
         <v>404921</v>
@@ -23732,16 +23732,16 @@
     </row>
     <row r="261" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B261" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C261" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D261" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -23818,16 +23818,16 @@
     </row>
     <row r="262" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B262" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C262" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D262" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -23904,16 +23904,16 @@
     </row>
     <row r="263" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B263" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C263" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D263" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E263">
         <v>10634</v>
@@ -23990,16 +23990,16 @@
     </row>
     <row r="264" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B264" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C264" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D264" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E264">
         <v>55909</v>
@@ -24076,16 +24076,16 @@
     </row>
     <row r="265" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B265" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C265" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D265" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E265">
         <v>28657</v>
